--- a/lab2/results.xlsx
+++ b/lab2/results.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -1577,7 +1577,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
